--- a/REGULAR/TANEDO, MARIA EVELYN.xlsx
+++ b/REGULAR/TANEDO, MARIA EVELYN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\BUDGET\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE711DBF-51D2-4862-9E51-5FC1527BDF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -242,15 +241,12 @@
   </si>
   <si>
     <t>2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -482,7 +478,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -626,6 +622,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -898,7 +897,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -946,7 +944,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -989,7 +987,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1053,7 +1051,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1113,7 +1111,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1179,7 +1177,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1242,7 +1240,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1338,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1399,7 +1397,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1464,7 +1462,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1507,7 +1505,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1580,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1768,7 +1766,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1834,7 +1832,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1892,7 +1890,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1958,7 +1956,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,7 +2012,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2089,7 +2087,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2132,7 +2130,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2198,7 +2196,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2254,7 +2252,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2350,25 +2348,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2675,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2685,7 +2683,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2693,99 +2691,99 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A34" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="60">
         <v>36357</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2793,7 +2791,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2806,24 +2804,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2858,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2867,7 +2865,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>37.972000000000001</v>
+        <v>39.222000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2877,12 +2875,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>27.021000000000001</v>
+        <v>28.271000000000001</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -2902,7 +2900,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>46</v>
       </c>
@@ -2920,7 +2918,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>44197</v>
       </c>
@@ -2944,7 +2942,7 @@
         <v>44222</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>44228</v>
       </c>
@@ -2968,7 +2966,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>51</v>
@@ -2990,7 +2988,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>44256</v>
       </c>
@@ -3010,7 +3008,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>44287</v>
       </c>
@@ -3036,7 +3034,7 @@
         <v>44326</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>44317</v>
       </c>
@@ -3056,7 +3054,7 @@
       <c r="J17" s="12"/>
       <c r="K17" s="15"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>44348</v>
       </c>
@@ -3076,7 +3074,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>44378</v>
       </c>
@@ -3102,7 +3100,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>44409</v>
       </c>
@@ -3122,7 +3120,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>44440</v>
       </c>
@@ -3142,7 +3140,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>44470</v>
       </c>
@@ -3168,7 +3166,7 @@
         <v>44493</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>44501</v>
       </c>
@@ -3194,7 +3192,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>44531</v>
       </c>
@@ -3220,7 +3218,7 @@
         <v>44545</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>47</v>
       </c>
@@ -3238,7 +3236,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>44562</v>
       </c>
@@ -3264,7 +3262,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>44593</v>
       </c>
@@ -3290,7 +3288,7 @@
         <v>44610</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>44621</v>
       </c>
@@ -3314,7 +3312,7 @@
         <v>44630</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>44652</v>
       </c>
@@ -3340,7 +3338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>44682</v>
       </c>
@@ -3364,7 +3362,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>44713</v>
       </c>
@@ -3390,7 +3388,7 @@
         <v>44739</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44743</v>
       </c>
@@ -3416,7 +3414,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>62</v>
@@ -3438,7 +3436,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44774</v>
       </c>
@@ -3464,7 +3462,7 @@
         <v>44803</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>44805</v>
       </c>
@@ -3490,7 +3488,7 @@
         <v>44809</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>56</v>
@@ -3512,7 +3510,7 @@
         <v>44824</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44835</v>
       </c>
@@ -3532,7 +3530,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44866</v>
       </c>
@@ -3558,7 +3556,7 @@
         <v>44869</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>62</v>
@@ -3580,7 +3578,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44896</v>
       </c>
@@ -3606,7 +3604,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="48" t="s">
         <v>68</v>
       </c>
@@ -3624,7 +3622,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44927</v>
       </c>
@@ -3650,7 +3648,7 @@
         <v>44939</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44958</v>
       </c>
@@ -3676,7 +3674,7 @@
         <v>44965</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>48</v>
@@ -3696,27 +3694,31 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44986</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C45" s="13"/>
+        <v>48</v>
+      </c>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="20"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="49">
+        <v>44995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>45017</v>
       </c>
@@ -3734,7 +3736,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>45047</v>
       </c>
@@ -3752,7 +3754,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>45078</v>
       </c>
@@ -3770,7 +3772,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>45108</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>45139</v>
       </c>
@@ -3806,7 +3808,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>45170</v>
       </c>
@@ -3824,7 +3826,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>45200</v>
       </c>
@@ -3842,7 +3844,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>45231</v>
       </c>
@@ -3860,7 +3862,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>45261</v>
       </c>
@@ -3878,7 +3880,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>45292</v>
       </c>
@@ -3896,7 +3898,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>45323</v>
       </c>
@@ -3914,7 +3916,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>45352</v>
       </c>
@@ -3932,7 +3934,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>45383</v>
       </c>
@@ -3950,7 +3952,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>45413</v>
       </c>
@@ -3968,7 +3970,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>45444</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>45474</v>
       </c>
@@ -4004,7 +4006,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>45505</v>
       </c>
@@ -4022,7 +4024,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>45536</v>
       </c>
@@ -4040,7 +4042,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>45566</v>
       </c>
@@ -4058,7 +4060,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>45597</v>
       </c>
@@ -4076,7 +4078,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>45627</v>
       </c>
@@ -4094,7 +4096,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>45658</v>
       </c>
@@ -4112,7 +4114,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>45689</v>
       </c>
@@ -4130,7 +4132,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>45717</v>
       </c>
@@ -4148,7 +4150,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>45748</v>
       </c>
@@ -4166,7 +4168,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>45778</v>
       </c>
@@ -4184,7 +4186,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45809</v>
       </c>
@@ -4202,7 +4204,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>45839</v>
       </c>
@@ -4220,7 +4222,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45870</v>
       </c>
@@ -4238,7 +4240,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>45901</v>
       </c>
@@ -4256,7 +4258,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45931</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>45962</v>
       </c>
@@ -4292,7 +4294,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45992</v>
       </c>
@@ -4310,7 +4312,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>46023</v>
       </c>
@@ -4328,7 +4330,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>46054</v>
       </c>
@@ -4346,7 +4348,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>46082</v>
       </c>
@@ -4364,7 +4366,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>46113</v>
       </c>
@@ -4382,7 +4384,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>46143</v>
       </c>
@@ -4400,7 +4402,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>46174</v>
       </c>
@@ -4418,7 +4420,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>46204</v>
       </c>
@@ -4436,7 +4438,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>46235</v>
       </c>
@@ -4454,7 +4456,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>46266</v>
       </c>
@@ -4472,7 +4474,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>46296</v>
       </c>
@@ -4490,7 +4492,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>46327</v>
       </c>
@@ -4508,7 +4510,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>46357</v>
       </c>
@@ -4526,7 +4528,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>46388</v>
       </c>
@@ -4544,7 +4546,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>46419</v>
       </c>
@@ -4562,7 +4564,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>46447</v>
       </c>
@@ -4580,7 +4582,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>46478</v>
       </c>
@@ -4598,7 +4600,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>46508</v>
       </c>
@@ -4616,7 +4618,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>46539</v>
       </c>
@@ -4634,7 +4636,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>46569</v>
       </c>
@@ -4652,7 +4654,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>46600</v>
       </c>
@@ -4670,7 +4672,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>46631</v>
       </c>
@@ -4688,7 +4690,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>46661</v>
       </c>
@@ -4706,7 +4708,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>46692</v>
       </c>
@@ -4724,7 +4726,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>46722</v>
       </c>
@@ -4742,7 +4744,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>46753</v>
       </c>
@@ -4760,7 +4762,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>46784</v>
       </c>
@@ -4778,7 +4780,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>46813</v>
       </c>
@@ -4796,7 +4798,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>46844</v>
       </c>
@@ -4814,7 +4816,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>46874</v>
       </c>
@@ -4832,7 +4834,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>46905</v>
       </c>
@@ -4850,7 +4852,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>46935</v>
       </c>
@@ -4868,7 +4870,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>46966</v>
       </c>
@@ -4886,7 +4888,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>46997</v>
       </c>
@@ -4904,7 +4906,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>47027</v>
       </c>
@@ -4922,7 +4924,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>47058</v>
       </c>
@@ -4940,7 +4942,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>47088</v>
       </c>
@@ -4958,7 +4960,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>47119</v>
       </c>
@@ -4976,7 +4978,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>47150</v>
       </c>
@@ -4994,7 +4996,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>47178</v>
       </c>
@@ -5012,7 +5014,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>47209</v>
       </c>
@@ -5030,7 +5032,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>47239</v>
       </c>
@@ -5048,7 +5050,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>47270</v>
       </c>
@@ -5066,7 +5068,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>47300</v>
       </c>
@@ -5084,7 +5086,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>47331</v>
       </c>
@@ -5102,7 +5104,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>47362</v>
       </c>
@@ -5120,7 +5122,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>47392</v>
       </c>
@@ -5138,7 +5140,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>47423</v>
       </c>
@@ -5156,7 +5158,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>47453</v>
       </c>
@@ -5174,7 +5176,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5190,7 +5192,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5206,7 +5208,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5222,7 +5224,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5238,7 +5240,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5254,7 +5256,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5270,7 +5272,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5286,7 +5288,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5302,7 +5304,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5318,7 +5320,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="41"/>
       <c r="B136" s="15"/>
       <c r="C136" s="42"/>
@@ -5335,10 +5337,9 @@
       <c r="K136" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="J2:K2"/>
@@ -5349,15 +5350,15 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -5375,41 +5376,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5438,7 +5439,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>20.472000000000001</v>
       </c>
@@ -5462,17 +5463,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5486,14 +5487,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5520,7 +5521,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5572,7 +5573,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5598,7 +5599,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5676,7 +5677,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5702,7 +5703,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5742,7 +5743,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5762,7 +5763,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5783,7 +5784,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5804,7 +5805,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5825,7 +5826,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5846,7 +5847,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5888,7 +5889,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5909,7 +5910,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5951,7 +5952,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5972,7 +5973,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5993,7 +5994,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6014,7 +6015,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6035,7 +6036,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6056,7 +6057,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6077,7 +6078,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6119,7 +6120,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6161,7 +6162,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6182,7 +6183,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6191,7 +6192,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6200,7 +6201,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6209,7 +6210,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6218,7 +6219,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6227,7 +6228,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6236,7 +6237,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6245,7 +6246,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6254,7 +6255,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6263,7 +6264,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6272,7 +6273,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6281,7 +6282,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6290,7 +6291,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6299,7 +6300,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6308,7 +6309,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6317,7 +6318,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6326,7 +6327,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6335,7 +6336,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6344,7 +6345,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6353,7 +6354,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6362,7 +6363,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6371,7 +6372,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6380,7 +6381,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6389,7 +6390,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6398,7 +6399,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6407,7 +6408,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6416,7 +6417,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6425,7 +6426,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6434,7 +6435,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6443,7 +6444,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
